--- a/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
+++ b/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE0238E-C1EF-45A8-8FF8-B189CA33C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A24A4-7F78-4FD2-BF39-F4A412EB0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
+    <workbookView xWindow="7170" yWindow="1720" windowWidth="18090" windowHeight="18990" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>name_2</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA128B-B704-4ADD-81B2-4DF8D891E810}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +468,7 @@
     <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +478,11 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -484,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -500,7 +506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -508,7 +514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -516,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>

--- a/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
+++ b/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A24A4-7F78-4FD2-BF39-F4A412EB0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69282D3-C72D-4499-8B94-15308A007BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="1720" windowWidth="18090" windowHeight="18990" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -455,79 +455,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA128B-B704-4ADD-81B2-4DF8D891E810}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
+++ b/Debugging-Cleaning/data/star_wars_homeworlds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69282D3-C72D-4499-8B94-15308A007BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94A51C-849C-434D-864B-F4E23A0523C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
+    <workbookView xWindow="7170" yWindow="6180" windowWidth="21840" windowHeight="14530" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA128B-B704-4ADD-81B2-4DF8D891E810}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +472,7 @@
     <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +494,14 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -517,13 +523,19 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
